--- a/Documentation/Asset List.xlsx
+++ b/Documentation/Asset List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Event Name</t>
   </si>
@@ -25,9 +25,15 @@
     <t>List of Assets Required</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Player Walk</t>
   </si>
   <si>
@@ -40,13 +46,31 @@
     <t>Footsteps</t>
   </si>
   <si>
+    <t>https://freesound.org/people/sturmankin/sounds/271867/</t>
+  </si>
+  <si>
+    <t>Needs fixing to trigger only when moving.</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>Fireball Charge</t>
   </si>
   <si>
     <t>Charge sound for powering up player fireball cast.</t>
   </si>
   <si>
-    <t>Charge Sound</t>
+    <t>Fireball Clipped</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Julien%20Matthey/sounds/105016/</t>
   </si>
   <si>
     <t>Fireball Cast</t>
@@ -67,6 +91,12 @@
     <t>Damage Sound</t>
   </si>
   <si>
+    <t>https://freesound.org/people/daboy291/sounds/138076/</t>
+  </si>
+  <si>
+    <t>Needs correlation between charge % and length of clip</t>
+  </si>
+  <si>
     <t>Enemy Walk</t>
   </si>
   <si>
@@ -85,6 +115,9 @@
     <t>Wacking Sound</t>
   </si>
   <si>
+    <t>https://freesound.org/people/PrimeJunt/sounds/135624/</t>
+  </si>
+  <si>
     <t>Enemy Cast</t>
   </si>
   <si>
@@ -109,6 +142,12 @@
     <t>Healing</t>
   </si>
   <si>
+    <t>https://freesound.org/people/the_very_Real_Horst/sounds/193039/</t>
+  </si>
+  <si>
+    <t>Needs correlation between health % and length of clip</t>
+  </si>
+  <si>
     <t>Collect Powerup</t>
   </si>
   <si>
@@ -118,6 +157,30 @@
     <t>Powerup Jingle?</t>
   </si>
   <si>
+    <t>https://freesound.org/people/nowism/sounds/484462/</t>
+  </si>
+  <si>
+    <t>Hellhound Walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog walking </t>
+  </si>
+  <si>
+    <t>Footsteps Sped up?</t>
+  </si>
+  <si>
+    <t>Hellhound Growl</t>
+  </si>
+  <si>
+    <t>Proximity Dog growl</t>
+  </si>
+  <si>
+    <t>Growling</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/coetzee_megan12/sounds/365988/</t>
+  </si>
+  <si>
     <t>Hellhound Melee</t>
   </si>
   <si>
@@ -127,6 +190,9 @@
     <t>Dog Bite</t>
   </si>
   <si>
+    <t>https://freesound.org/people/Camilo_Vargas13/sounds/429791/</t>
+  </si>
+  <si>
     <t>Hellhound Hit</t>
   </si>
   <si>
@@ -136,6 +202,9 @@
     <t>Dog Injured</t>
   </si>
   <si>
+    <t>https://freesound.org/people/jedg/sounds/505827/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background Ambience </t>
   </si>
   <si>
@@ -148,6 +217,12 @@
     <t>Phones ringing, Water bubbler, Papers being shuffled?</t>
   </si>
   <si>
+    <t>https://freesound.org/people/Nightwatcher98/sounds/407292/</t>
+  </si>
+  <si>
+    <t>May remove this depending on music track</t>
+  </si>
+  <si>
     <t>Background Music</t>
   </si>
   <si>
@@ -157,6 +232,9 @@
     <t>Music</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Menu Interaction</t>
   </si>
   <si>
@@ -167,16 +245,27 @@
   </si>
   <si>
     <t>Ping or Click sound?</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/adcbicycle/sounds/13952/</t>
+  </si>
+  <si>
+    <t>Need to find right event so it plays on click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -186,9 +275,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +290,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF980000"/>
-        <bgColor rgb="FF980000"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,18 +313,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -442,6 +562,8 @@
     <col customWidth="1" min="2" max="2" width="60.57"/>
     <col customWidth="1" min="3" max="3" width="30.57"/>
     <col customWidth="1" min="4" max="4" width="51.0"/>
+    <col customWidth="1" min="5" max="5" width="61.0"/>
+    <col customWidth="1" min="7" max="7" width="65.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,233 +582,363 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E6"/>
+    <hyperlink r:id="rId6" ref="E7"/>
+    <hyperlink r:id="rId7" ref="E8"/>
+    <hyperlink r:id="rId8" ref="E9"/>
+    <hyperlink r:id="rId9" ref="E10"/>
+    <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E13"/>
+    <hyperlink r:id="rId13" ref="E14"/>
+    <hyperlink r:id="rId14" ref="E15"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E18"/>
+  </hyperlinks>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Documentation/Asset List.xlsx
+++ b/Documentation/Asset List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Event Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>https://freesound.org/people/sturmankin/sounds/271867/</t>
   </si>
   <si>
-    <t>Needs fixing to trigger only when moving.</t>
+    <t>Complete</t>
   </si>
   <si>
     <t>Incomplete</t>
@@ -58,7 +58,7 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Complete</t>
+    <t>Removed</t>
   </si>
   <si>
     <t>Fireball Charge</t>
@@ -94,28 +94,19 @@
     <t>https://freesound.org/people/daboy291/sounds/138076/</t>
   </si>
   <si>
-    <t>Needs correlation between charge % and length of clip</t>
-  </si>
-  <si>
-    <t>Enemy Walk</t>
-  </si>
-  <si>
-    <t>Softer sound for enemies walking around.</t>
+    <t>Enemy Melee</t>
+  </si>
+  <si>
+    <t>Enemy melee attack hitting the player.</t>
   </si>
   <si>
     <t>Enemy</t>
   </si>
   <si>
-    <t>Enemy Melee</t>
-  </si>
-  <si>
-    <t>Enemy melee attack hitting the player.</t>
-  </si>
-  <si>
     <t>Wacking Sound</t>
   </si>
   <si>
-    <t>https://freesound.org/people/PrimeJunt/sounds/135624/</t>
+    <t>https://freesound.org/people/florianreichelt/sounds/460509/</t>
   </si>
   <si>
     <t>Enemy Cast</t>
@@ -145,9 +136,6 @@
     <t>https://freesound.org/people/the_very_Real_Horst/sounds/193039/</t>
   </si>
   <si>
-    <t>Needs correlation between health % and length of clip</t>
-  </si>
-  <si>
     <t>Collect Powerup</t>
   </si>
   <si>
@@ -169,6 +157,9 @@
     <t>Footsteps Sped up?</t>
   </si>
   <si>
+    <t xml:space="preserve">Hellhounds designed to be same as all enemies. </t>
+  </si>
+  <si>
     <t>Hellhound Growl</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>https://freesound.org/people/Nightwatcher98/sounds/407292/</t>
   </si>
   <si>
-    <t>May remove this depending on music track</t>
-  </si>
-  <si>
     <t>Background Music</t>
   </si>
   <si>
@@ -248,16 +236,13 @@
   </si>
   <si>
     <t>https://freesound.org/people/adcbicycle/sounds/13952/</t>
-  </si>
-  <si>
-    <t>Need to find right event so it plays on click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -280,8 +265,12 @@
       <color rgb="FF0000FF"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +279,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -302,8 +291,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -313,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -329,17 +324,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -605,8 +608,7 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6"/>
@@ -617,6 +619,9 @@
         <v>14</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -636,7 +641,9 @@
       <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -654,7 +661,9 @@
       <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -672,121 +681,133 @@
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
@@ -796,90 +817,107 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
@@ -889,35 +927,16 @@
         <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3" t="s">
-        <v>79</v>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -936,9 +955,8 @@
     <hyperlink r:id="rId12" ref="E13"/>
     <hyperlink r:id="rId13" ref="E14"/>
     <hyperlink r:id="rId14" ref="E15"/>
-    <hyperlink r:id="rId15" ref="E16"/>
-    <hyperlink r:id="rId16" ref="E18"/>
+    <hyperlink r:id="rId15" ref="E17"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/Documentation/Asset List.xlsx
+++ b/Documentation/Asset List.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Event Name</t>
   </si>
@@ -220,7 +220,10 @@
     <t>Music</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>https://soundcloud.com/cescape/ethan-synth-wave-2/s-sXKbg5hDsgI</t>
+  </si>
+  <si>
+    <t>Made by my friend Ethan Cantor :)</t>
   </si>
   <si>
     <t>Menu Interaction</t>
@@ -236,13 +239,22 @@
   </si>
   <si>
     <t>https://freesound.org/people/adcbicycle/sounds/13952/</t>
+  </si>
+  <si>
+    <t>Menu Hover</t>
+  </si>
+  <si>
+    <t>Sound played when hovering over menu items</t>
+  </si>
+  <si>
+    <t>Powerup Sound (edited)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -254,9 +266,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -264,11 +273,11 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF000000"/>
     </font>
+    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -308,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -316,33 +325,30 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -588,354 +594,376 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -955,8 +983,10 @@
     <hyperlink r:id="rId12" ref="E13"/>
     <hyperlink r:id="rId13" ref="E14"/>
     <hyperlink r:id="rId14" ref="E15"/>
-    <hyperlink r:id="rId15" ref="E17"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E17"/>
+    <hyperlink r:id="rId17" ref="E18"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>